--- a/exp_2/exp2'.xlsx
+++ b/exp_2/exp2'.xlsx
@@ -152,10 +152,13 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="D1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.65"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -168,7 +171,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>7.88</v>
+        <v>0.00788</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.09860921319</v>
@@ -179,7 +182,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>4.98</v>
+        <v>0.00498</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.1761709034</v>
@@ -190,7 +193,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>-5</v>
+        <v>-0.005</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.415428646</v>
@@ -201,7 +204,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>-15.1</v>
+        <v>-0.0151</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.6604451632</v>
@@ -212,7 +215,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>-25.15</v>
+        <v>-0.02515</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.9044435083</v>
@@ -223,7 +226,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>-35.09</v>
+        <v>-0.03509</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1.164955008</v>
@@ -234,7 +237,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>-50.02</v>
+        <v>-0.05002</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1.527928236</v>
@@ -245,7 +248,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>-70</v>
+        <v>-0.07</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>2.02056021</v>
@@ -256,7 +259,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>-90.08</v>
+        <v>-0.09008</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>2.535599821</v>
@@ -267,7 +270,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>-110.8</v>
+        <v>-0.1108</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3.024574669</v>
@@ -278,7 +281,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>-130.1</v>
+        <v>-0.1301</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>3.47424585</v>
@@ -289,7 +292,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>-150.5</v>
+        <v>-0.1505</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>4.032193029</v>
@@ -300,7 +303,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>-170</v>
+        <v>-0.17</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>4.469693245</v>
@@ -311,7 +314,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>-190.2</v>
+        <v>-0.1902</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>5.015994753</v>
@@ -322,7 +325,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>-210.8</v>
+        <v>-0.2108</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>5.497458113</v>
@@ -333,7 +336,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>-230.8</v>
+        <v>-0.2308</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>5.737028936</v>
@@ -344,7 +347,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>-250.4</v>
+        <v>-0.2504</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>6.39303415</v>
